--- a/biology/Zoologie/Chasiempis/Chasiempis.xlsx
+++ b/biology/Zoologie/Chasiempis/Chasiempis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasiempis est un genre de passereaux de la famille des Monarchidae. Il est composé de trois espèces, toutes endémiques d'Hawaï, appelées ʻelepaio en hawaïen.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence (version 3.1, 2012) du Congrès ornithologique international (ordre phylogénique) [1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 3.1, 2012) du Congrès ornithologique international (ordre phylogénique) :
 Chasiempis sclateri – Monarque de Kauai ; sur Kauai ;
 Chasiempis ibidis – Monarque d'Oahu ; sur Oahu ;
 Chasiempis sandwichensis – Monarque d'Hawaï ; sur l'île principale de l'archipel.</t>
@@ -544,7 +558,9 @@
           <t>Référence dans la culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musicien français Olivier Messiaen s'est inspiré de son chant pour une des pièces de son Des canyons aux étoiles..., écrit entre 1971 et 1974.
 </t>
